--- a/src/main/resources/Comprehensive_Data_RoleWise.xlsx
+++ b/src/main/resources/Comprehensive_Data_RoleWise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neco it\sochbackend\JavaServices-Lab\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neco it\sochbackend\DashBoard\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9515D54D-1906-473F-B3F8-FDA36056E473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E588F6-E935-4D8C-8D58-5FBB4ABD388F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" xr2:uid="{78956D4E-A6D7-488B-A494-501ACF9AF5EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>State/UT</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>20 days or more</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Facility Name</t>
+  </si>
+  <si>
+    <t>Facility Code</t>
   </si>
 </sst>
 </file>
@@ -423,51 +432,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0EEF39-8C19-4973-ABB7-748BC7EBF15B}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="1" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
